--- a/KneppSiteData/largeHerbNumbers.xlsx
+++ b/KneppSiteData/largeHerbNumbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/KneppModel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/KneppModel/KneppSiteData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175A28E2-AA93-224C-9228-02DBFE0E9152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCF58A1-150F-4A4E-A049-3A768650E3B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{14ACA643-B89F-A540-AEC9-ABB268219C41}"/>
+    <workbookView xWindow="8900" yWindow="460" windowWidth="17240" windowHeight="15000" xr2:uid="{14ACA643-B89F-A540-AEC9-ABB268219C41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Fallow</t>
   </si>
@@ -53,14 +53,41 @@
     <t>Large herb</t>
   </si>
   <si>
-    <t xml:space="preserve">per km2 </t>
+    <t>* are there any years when a species wasn't culled or supplemented (natural growth rate?)</t>
+  </si>
+  <si>
+    <t>per km2 large herbs</t>
+  </si>
+  <si>
+    <t>per km2 pigs</t>
+  </si>
+  <si>
+    <t>* In 2010-2011, some deer were relocated to the southern block (supplemented)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>* Exmoor ponies are not culled (but not sure if they're removed/supplemented, esp. given population declines e.g. 2012 to 2013))</t>
+  </si>
+  <si>
+    <t>* How much of these numbers can be considered natural growth rate? E.g., approx what % were culled? Were there any stock supplements in a given year? E.g. was longhorn cattle increase from 2012-2013 natural or was the stock supplemented?</t>
+  </si>
+  <si>
+    <t>10% above</t>
+  </si>
+  <si>
+    <t>10% below</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,6 +103,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -93,13 +135,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,316 +609,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B9E166-62F1-694C-9916-42E3F9484537}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9">
         <v>2009</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="9">
         <v>2010</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="9">
         <v>2011</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="9">
         <v>2012</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="9">
         <v>2013</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="9">
         <v>2014</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="9">
         <v>2015</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="9">
         <v>2016</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="9">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="9">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="9">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>30</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>81</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>81</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>100</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>140</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <v>165</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>13</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>26</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>77</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>92</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>116</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>129</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>264</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>110</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>93</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>11</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>35</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>9</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <f>SUM(B2:B5)</f>
         <v>118</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:I9" si="0">SUM(C2:C5)</f>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:M9" si="0">SUM(C2:C5)</f>
         <v>186</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
+      <c r="F9" s="2">
+        <f>SUM(F2:F5)</f>
         <v>387</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="0"/>
+        <v>529</v>
+      </c>
+      <c r="N9" s="18">
+        <f>M9+(M9*0.1)</f>
+        <v>581.9</v>
+      </c>
+      <c r="O9" s="18">
+        <f>M9-(M9*0.1)</f>
+        <v>476.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <f>B6</f>
         <v>35</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <f t="shared" ref="C10:I10" si="1">C6</f>
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <f>M10+(M10*0.1)</f>
+        <v>14.3</v>
+      </c>
+      <c r="O10">
+        <f>M10-(M10*0.1)</f>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
         <f>B9/4.45</f>
         <v>26.516853932584269</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f t="shared" ref="C13:I14" si="2">C9/4.45</f>
         <v>41.797752808988761</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>47.640449438202246</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f t="shared" si="2"/>
         <v>55.280898876404493</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>86.966292134831463</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f t="shared" si="2"/>
         <v>52.359550561797754</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>60.674157303370784</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
         <v>63.595505617977523</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14">
+      <c r="J13" s="2">
+        <f t="shared" ref="J13:M13" si="3">J9/4.45</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="3"/>
+        <v>118.87640449438202</v>
+      </c>
+      <c r="N13" s="18">
+        <f>N9/4.45</f>
+        <v>130.76404494382021</v>
+      </c>
+      <c r="O13">
+        <f>O9/4.45</f>
+        <v>106.98876404494382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4">
         <f>B10/4.45</f>
         <v>7.8651685393258424</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <f t="shared" si="2"/>
         <v>3.8202247191011236</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <f t="shared" si="2"/>
         <v>4.9438202247191008</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f t="shared" si="2"/>
         <v>7.4157303370786511</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
+      <c r="F14" s="4">
+        <f>F10/4.45</f>
         <v>1.348314606741573</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <f t="shared" si="2"/>
         <v>4.0449438202247192</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <f t="shared" si="2"/>
         <v>2.0224719101123596</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <f t="shared" si="2"/>
         <v>1.5730337078651684</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" ref="J14:L14" si="4">J10/4.45</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f>M10/4.45</f>
+        <v>2.9213483146067416</v>
+      </c>
+      <c r="N14" s="18">
+        <f>N10/4.45</f>
+        <v>3.2134831460674156</v>
+      </c>
+      <c r="O14">
+        <f>O10/4.45</f>
+        <v>2.6292134831460672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
